--- a/pred_ohlcv/54_21/2019-10-27 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 DAC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2789663.893999999</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2789663.893999999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1954046.181599999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1636580.469799999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1411506.907799999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1554628.944799999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2213162.292799999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1939919.495799999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1627391.173799999</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1448561.712499999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-898394.9226615141</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>878247.0007542189</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>878247.0007542189</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1143745.462754219</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>875939.8937542188</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1185768.320754219</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1396954.542754219</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1168268.644754219</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1816697.395754219</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1498267.661069951</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1665063.098769951</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2052310.302769951</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2059933.425669951</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1835840.331669951</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1955041.302669951</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1634291.74566995</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1892880.16266995</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1432730.54166995</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1367237.35866995</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1745542.19266995</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1077900.667469929</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1251643.956669929</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1251643.956669929</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1459184.453069929</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1524762.03006993</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-1221232.48386993</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1501085.94386993</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1201102.859869929</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1489014.488869929</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-1329819.07586993</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1329819.07586993</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1329819.07586993</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1275307.64986993</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1275307.64986993</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 DAC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1954046.181599999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1411506.907799999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2114483.829799999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2213162.292799999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1939919.495799999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-2045718.834799999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1883540.168799999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1627391.173799999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1876636.262799999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-2203348.862699999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1923528.236699999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1738431.145499999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1868839.172499999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1448561.712499999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-898394.9226615141</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1168268.644754219</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1816697.395754219</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1498267.661069951</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1665063.098769951</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>2052310.302769951</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>2059933.425669951</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1835840.331669951</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1817109.521669951</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1955041.302669951</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1634291.74566995</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1892880.16266995</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1432730.54166995</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1367237.35866995</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1745542.19266995</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1624888.31366995</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1324449.907669951</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-33311.73653004935</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>74651.08246995065</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1077900.667469929</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
